--- a/StructureDefinition-unknown-status.xlsx
+++ b/StructureDefinition-unknown-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T16:40:30+00:00</t>
+    <t>2022-04-11T16:52:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-unknown-status.xlsx
+++ b/StructureDefinition-unknown-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T16:52:02+00:00</t>
+    <t>2022-04-11T17:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-unknown-status.xlsx
+++ b/StructureDefinition-unknown-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:02:35+00:00</t>
+    <t>2022-04-11T17:09:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-unknown-status.xlsx
+++ b/StructureDefinition-unknown-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:09:19+00:00</t>
+    <t>2022-04-11T17:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-unknown-status.xlsx
+++ b/StructureDefinition-unknown-status.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>S37 Extension to Questionnaire of Unknown status</t>
+    <t>Questionnaire UnknownStatus Extension</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:19:31+00:00</t>
+    <t>2022-04-11T17:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -678,7 +678,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="47.6640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="38.4375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-unknown-status.xlsx
+++ b/StructureDefinition-unknown-status.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Questionnaire UnknownStatus Extension</t>
+    <t>Extension : Questionnaire UnknownStatus</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:46:13+00:00</t>
+    <t>2022-04-11T17:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -678,7 +678,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="38.4375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="39.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-unknown-status.xlsx
+++ b/StructureDefinition-unknown-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:58:20+00:00</t>
+    <t>2022-04-11T18:04:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-unknown-status.xlsx
+++ b/StructureDefinition-unknown-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T18:04:55+00:00</t>
+    <t>2022-04-11T18:10:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-unknown-status.xlsx
+++ b/StructureDefinition-unknown-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T18:10:40+00:00</t>
+    <t>2022-04-11T18:53:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-unknown-status.xlsx
+++ b/StructureDefinition-unknown-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T18:53:32+00:00</t>
+    <t>2022-04-11T19:03:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
